--- a/data/case1/5/Q1_1.xlsx
+++ b/data/case1/5/Q1_1.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.1418375834501262</v>
+        <v>0.072771377589418762</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999511113344</v>
+        <v>-0.0059999999515376601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999569992895</v>
+        <v>-0.003999999962811529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999207469585</v>
+        <v>-0.0079999999305968572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999559215951</v>
+        <v>-0.0029999999702221558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999534299207</v>
+        <v>-0.0019999999787660983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998892910114</v>
+        <v>-0.0099999999149016361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998867481565</v>
+        <v>-0.0099999999135089723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999478499397</v>
+        <v>-0.0019999999766007193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999459923146</v>
+        <v>-0.0019999999765385468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999378711451</v>
+        <v>-0.0029999999686172174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.013069940739946162</v>
+        <v>-0.0034999999647213897</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999289748729</v>
+        <v>-0.0034999999664488968</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998920605719</v>
+        <v>-0.0079999999317195147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999994669364156</v>
+        <v>0.01426016847050704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999379556321</v>
+        <v>-0.0019999999814341862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999368671695</v>
+        <v>-0.0019999999826838533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999206958847</v>
+        <v>0.0078654463508174288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0047143086051342209</v>
+        <v>-0.0039999999672644115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999677977627</v>
+        <v>0.0077953767099359084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.014471790020587072</v>
+        <v>-0.0039999999664974695</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999680260245</v>
+        <v>-0.0039999999660853547</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999462668754</v>
+        <v>-0.0049999999521457283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999822756465</v>
+        <v>-0.019999999827506443</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999820249137</v>
+        <v>-0.019999999824698911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999483412694</v>
+        <v>-0.0024999999755337399</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999471009282</v>
+        <v>0.072416174211952899</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999449265005</v>
+        <v>-0.0019999999737327911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999010725844</v>
+        <v>-0.0069999999289400705</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999479967148</v>
+        <v>-0.059999999506005874</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999040533112</v>
+        <v>-0.0069999999313772321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998821402869</v>
+        <v>0.039924424325612051</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.049843897393545333</v>
+        <v>-0.0039999999568038902</v>
       </c>
     </row>
   </sheetData>
